--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N2">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O2">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P2">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q2">
-        <v>1.921018651056</v>
+        <v>0.0285430567975</v>
       </c>
       <c r="R2">
-        <v>11.526111906336</v>
+        <v>0.11417222719</v>
       </c>
       <c r="S2">
-        <v>0.1274765705819998</v>
+        <v>0.002304387570716394</v>
       </c>
       <c r="T2">
-        <v>0.1197424607254622</v>
+        <v>0.001465460818006498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.824174</v>
       </c>
       <c r="O3">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P3">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q3">
-        <v>1.268977411104</v>
+        <v>0.03450953900333333</v>
       </c>
       <c r="R3">
-        <v>11.420796699936</v>
+        <v>0.20705723402</v>
       </c>
       <c r="S3">
-        <v>0.08420786983230948</v>
+        <v>0.002786083961315565</v>
       </c>
       <c r="T3">
-        <v>0.1186483622064973</v>
+        <v>0.002657688923210293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N4">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O4">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P4">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q4">
-        <v>11.20188888144</v>
+        <v>0.261577786855</v>
       </c>
       <c r="R4">
-        <v>67.21133328864001</v>
+        <v>1.04631114742</v>
       </c>
       <c r="S4">
-        <v>0.7433443594426494</v>
+        <v>0.02111815160795811</v>
       </c>
       <c r="T4">
-        <v>0.6982450371835141</v>
+        <v>0.01342995602105352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N5">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O5">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P5">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q5">
-        <v>0.5790350144160001</v>
+        <v>0.003279472676666667</v>
       </c>
       <c r="R5">
-        <v>5.211315129744001</v>
+        <v>0.01967683606</v>
       </c>
       <c r="S5">
-        <v>0.03842409226171471</v>
+        <v>0.0002647640765398541</v>
       </c>
       <c r="T5">
-        <v>0.05413930580600655</v>
+        <v>0.0002525625800421715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N6">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O6">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P6">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q6">
-        <v>0.09866217998400001</v>
+        <v>1.733487E-05</v>
       </c>
       <c r="R6">
-        <v>0.887959619856</v>
+        <v>0.00010400922</v>
       </c>
       <c r="S6">
-        <v>0.006547107881326709</v>
+        <v>1.399508793027497E-06</v>
       </c>
       <c r="T6">
-        <v>0.009224834078519996</v>
+        <v>1.335013254736332E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H7">
+        <v>13.857264</v>
+      </c>
+      <c r="I7">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J7">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2272265</v>
+      </c>
+      <c r="N7">
+        <v>0.454453</v>
+      </c>
+      <c r="O7">
+        <v>0.08704083604617911</v>
+      </c>
+      <c r="P7">
+        <v>0.08229687998280369</v>
+      </c>
+      <c r="Q7">
+        <v>1.049579199432</v>
+      </c>
+      <c r="R7">
+        <v>6.297475196592</v>
+      </c>
+      <c r="S7">
+        <v>0.08473644847546273</v>
+      </c>
+      <c r="T7">
+        <v>0.08083141916479719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H8">
+        <v>13.857264</v>
+      </c>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2747246666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.824174</v>
+      </c>
+      <c r="O8">
+        <v>0.1052353694185077</v>
+      </c>
+      <c r="P8">
+        <v>0.149249644656207</v>
+      </c>
+      <c r="Q8">
+        <v>1.268977411104</v>
+      </c>
+      <c r="R8">
+        <v>11.420796699936</v>
+      </c>
+      <c r="S8">
+        <v>0.1024492854571921</v>
+      </c>
+      <c r="T8">
+        <v>0.1465919557329967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.082377</v>
+      </c>
+      <c r="N9">
+        <v>4.164754</v>
+      </c>
+      <c r="O9">
+        <v>0.7976703203338269</v>
+      </c>
+      <c r="P9">
+        <v>0.7541951755096822</v>
+      </c>
+      <c r="Q9">
+        <v>9.618682612176002</v>
+      </c>
+      <c r="R9">
+        <v>57.71209567305601</v>
+      </c>
+      <c r="S9">
+        <v>0.7765521687258689</v>
+      </c>
+      <c r="T9">
+        <v>0.7407652194886287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02610733333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.078322</v>
+      </c>
+      <c r="O10">
+        <v>0.0100006122537187</v>
+      </c>
+      <c r="P10">
+        <v>0.01418332860386696</v>
+      </c>
+      <c r="Q10">
+        <v>0.120592070112</v>
+      </c>
+      <c r="R10">
+        <v>1.085328631008</v>
+      </c>
+      <c r="S10">
+        <v>0.009735848177178852</v>
+      </c>
+      <c r="T10">
+        <v>0.01393076602382479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.000138</v>
+      </c>
+      <c r="N11">
+        <v>0.000414</v>
+      </c>
+      <c r="O11">
+        <v>5.286194776741585E-05</v>
+      </c>
+      <c r="P11">
+        <v>7.49712474400669E-05</v>
+      </c>
+      <c r="Q11">
+        <v>0.0006374341440000001</v>
+      </c>
+      <c r="R11">
+        <v>0.005736907296</v>
+      </c>
+      <c r="S11">
+        <v>5.146243897438836E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.363623418533058E-05</v>
       </c>
     </row>
   </sheetData>
